--- a/CA_指令控制信号维护表.xlsx
+++ b/CA_指令控制信号维护表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="8320"/>
+    <workbookView windowWidth="15600" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>指令</t>
   </si>
@@ -166,6 +166,54 @@
   </si>
   <si>
     <t>sa扩展</t>
+  </si>
+  <si>
+    <t>ANDI</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>ORI</t>
+  </si>
+  <si>
+    <t>001101</t>
+  </si>
+  <si>
+    <t>XORI</t>
+  </si>
+  <si>
+    <t>001110</t>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>SUBU</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>SRA</t>
+  </si>
+  <si>
+    <t>SLLV</t>
+  </si>
+  <si>
+    <t>SRL</t>
+  </si>
+  <si>
+    <t>SRAV</t>
+  </si>
+  <si>
+    <t>000111</t>
+  </si>
+  <si>
+    <t>SRLV</t>
+  </si>
+  <si>
+    <t>000110</t>
   </si>
 </sst>
 </file>
@@ -173,9 +221,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -195,6 +243,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -208,31 +285,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,7 +326,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,14 +334,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -278,22 +341,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,14 +356,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -323,9 +364,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,31 +388,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,151 +544,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,41 +582,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,15 +606,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -608,6 +617,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,6 +655,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -639,10 +687,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,133 +699,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,17 +1190,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5454545454545" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.0909090909091" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.9090909090909" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5416666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.0916666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.9083333333333" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1748,14 +1796,278 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="7:13">
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1">
+        <v>100011</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1">
+        <v>100111</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1">
+        <v>100110</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1773,7 +2085,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1790,7 +2102,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
